--- a/data/OR1_1219_macro_size_final.xlsx
+++ b/data/OR1_1219_macro_size_final.xlsx
@@ -22537,7 +22537,7 @@
       </c>
       <c r="J518" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L518">
@@ -25116,7 +25116,7 @@
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L584">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="J585" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L585">
@@ -25204,7 +25204,7 @@
       </c>
       <c r="J586" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L586">
@@ -25248,7 +25248,7 @@
       </c>
       <c r="J587" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L587">
@@ -25292,7 +25292,7 @@
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L588">
@@ -25336,7 +25336,7 @@
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L589">
@@ -25380,7 +25380,7 @@
       </c>
       <c r="J590" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L590">
@@ -25424,7 +25424,7 @@
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L591">
@@ -25468,7 +25468,7 @@
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L592">
@@ -25512,7 +25512,7 @@
       </c>
       <c r="J593" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L593">
@@ -25556,7 +25556,7 @@
       </c>
       <c r="J594" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L594">
@@ -25600,7 +25600,7 @@
       </c>
       <c r="J595" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L595">
@@ -25644,7 +25644,7 @@
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L596">
@@ -25688,7 +25688,7 @@
       </c>
       <c r="J597" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L597">
@@ -25732,7 +25732,7 @@
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L598">
@@ -25776,7 +25776,7 @@
       </c>
       <c r="J599" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L599">
@@ -27413,7 +27413,7 @@
       </c>
       <c r="J637" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L637">
@@ -31668,7 +31668,7 @@
       </c>
       <c r="J737" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L737">
@@ -31712,7 +31712,7 @@
       </c>
       <c r="J738" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L738">
@@ -31756,7 +31756,7 @@
       </c>
       <c r="J739" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L739">
@@ -31800,7 +31800,7 @@
       </c>
       <c r="J740" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L740">
@@ -31844,7 +31844,7 @@
       </c>
       <c r="J741" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L741">
@@ -31888,7 +31888,7 @@
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L742">
@@ -31932,7 +31932,7 @@
       </c>
       <c r="J743" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L743">
@@ -34619,7 +34619,7 @@
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L811">
@@ -34663,7 +34663,7 @@
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L812">
@@ -34707,7 +34707,7 @@
       </c>
       <c r="J813" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L813">
@@ -34751,7 +34751,7 @@
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L814">
@@ -34795,7 +34795,7 @@
       </c>
       <c r="J815" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L815">
@@ -36234,7 +36234,7 @@
       </c>
       <c r="J851" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L851">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="J852" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L852">
@@ -36322,7 +36322,7 @@
       </c>
       <c r="J853" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L853">
@@ -36366,7 +36366,7 @@
       </c>
       <c r="J854" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L854">
@@ -36410,7 +36410,7 @@
       </c>
       <c r="J855" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L855">
@@ -36454,7 +36454,7 @@
       </c>
       <c r="J856" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L856">
@@ -36498,7 +36498,7 @@
       </c>
       <c r="J857" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L857">
@@ -36542,7 +36542,7 @@
       </c>
       <c r="J858" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L858">
@@ -36586,7 +36586,7 @@
       </c>
       <c r="J859" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L859">
@@ -36630,7 +36630,7 @@
       </c>
       <c r="J860" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L860">
@@ -36674,7 +36674,7 @@
       </c>
       <c r="J861" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L861">
@@ -36718,7 +36718,7 @@
       </c>
       <c r="J862" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L862">
@@ -36762,7 +36762,7 @@
       </c>
       <c r="J863" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L863">
@@ -36806,7 +36806,7 @@
       </c>
       <c r="J864" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L864">
@@ -36850,7 +36850,7 @@
       </c>
       <c r="J865" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L865">
@@ -36894,7 +36894,7 @@
       </c>
       <c r="J866" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L866">
@@ -39587,7 +39587,7 @@
       </c>
       <c r="J933" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L933">
@@ -39631,7 +39631,7 @@
       </c>
       <c r="J934" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L934">
@@ -39675,7 +39675,7 @@
       </c>
       <c r="J935" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L935">
@@ -39719,7 +39719,7 @@
       </c>
       <c r="J936" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L936">
@@ -39763,7 +39763,7 @@
       </c>
       <c r="J937" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L937">
@@ -39807,7 +39807,7 @@
       </c>
       <c r="J938" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L938">
@@ -39851,7 +39851,7 @@
       </c>
       <c r="J939" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L939">
@@ -39895,7 +39895,7 @@
       </c>
       <c r="J940" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L940">
@@ -39939,7 +39939,7 @@
       </c>
       <c r="J941" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>C</t>
         </is>
       </c>
       <c r="L941">
